--- a/DMSNewVSale_2025-10-28_20-38.xlsx
+++ b/DMSNewVSale_2025-10-28_20-38.xlsx
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>71.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
   </si>
   <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
@@ -2957,13 +2966,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2990,13 +2999,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3023,13 +3032,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3062,7 +3071,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3089,21 +3098,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3115,7 +3124,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3132,11 +3141,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3155,7 +3164,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3165,14 +3174,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3181,14 +3190,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3198,11 +3207,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>15</v>
@@ -3221,7 +3230,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3238,7 +3247,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3264,14 +3273,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3280,14 +3289,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3297,14 +3306,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3313,14 +3322,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3330,14 +3339,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3346,14 +3355,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3363,14 +3372,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3379,14 +3388,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3396,14 +3405,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3412,14 +3421,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3429,14 +3438,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3452,7 +3461,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3462,11 +3471,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>15</v>
@@ -3478,14 +3487,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3495,14 +3504,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3518,13 +3527,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3551,24 +3560,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3584,7 +3593,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3594,11 +3603,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>15</v>
@@ -3617,7 +3626,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3627,7 +3636,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3650,7 +3659,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3660,11 +3669,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>15</v>
@@ -3676,14 +3685,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3693,11 +3702,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>15</v>
@@ -3716,7 +3725,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3726,14 +3735,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3749,7 +3758,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3799,7 +3808,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3815,24 +3824,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3841,31 +3850,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3874,14 +3883,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3891,14 +3900,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3907,7 +3916,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3924,7 +3933,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3980,13 +3989,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3997,7 +4006,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4013,21 +4022,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>15</v>
@@ -4039,14 +4048,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4056,11 +4065,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>15</v>
@@ -4072,14 +4081,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4089,11 +4098,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>15</v>
@@ -4145,7 +4154,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4155,7 +4164,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4178,7 +4187,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4188,14 +4197,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4204,7 +4213,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4221,11 +4230,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4237,14 +4246,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4254,11 +4263,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4270,14 +4279,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4287,14 +4296,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4310,7 +4319,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4327,7 +4336,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4343,7 +4352,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4353,14 +4362,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4369,14 +4378,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4386,14 +4395,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4409,7 +4418,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,24 +4451,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4468,7 +4477,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4485,14 +4494,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4501,14 +4510,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4518,11 +4527,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4541,7 +4550,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4551,14 +4560,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4567,14 +4576,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4591,7 +4600,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4624,7 +4633,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>276</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4633,7 +4642,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4650,14 +4659,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q101" s="12">
         <v>279</v>
-      </c>
-      <c t="s" r="Q101" s="12">
-        <v>11</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4673,7 +4682,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4683,14 +4692,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4699,14 +4708,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>59</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4716,14 +4725,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4732,14 +4741,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>59</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4749,14 +4758,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4765,14 +4774,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4782,14 +4791,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4805,7 +4814,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4815,51 +4824,84 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" ht="26.25" customHeight="1">
-      <c r="N107" s="13">
-        <v>5602.0200000000004</v>
-      </c>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>292</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>293</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>294</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>25</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>33</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>225</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" ht="25.5" customHeight="1">
+      <c r="N108" s="13">
+        <v>5794.0200000000004</v>
+      </c>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>295</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>296</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>297</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5368,10 +5410,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="N107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
